--- a/test_data/Logindata.xlsx
+++ b/test_data/Logindata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\Demo\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FrameworkDemo\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECD96CA-9500-4FDE-96A0-529DFD0CBC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363555D5-CD4B-455A-A908-A2519432B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>appu</t>
+  </si>
+  <si>
+    <t>String input</t>
+  </si>
+  <si>
+    <t>iQOO Z3</t>
   </si>
 </sst>
 </file>
@@ -365,35 +371,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9972024124</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
